--- a/biology/Botanique/Erigeron_annuus/Erigeron_annuus.xlsx
+++ b/biology/Botanique/Erigeron_annuus/Erigeron_annuus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erigeron annuus
 La Vergerette annuelle (Erigeron annuus) est une espèce de plantes herbacées de la famille des Astéracées. Originaire d'Amérique du Nord, elle est maintenant largement répandue en Europe où elle est considérée comme envahissante.
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante assez haute, à fleurs blanchâtres.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erigeron_annuus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erigeron_annuus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : blanc, jaune
 Période de floraison : août-septembre
 Inflorescence : racème de capitules
@@ -529,8 +578,43 @@
 Habitat type : mégaphorbiaies planitiaires-collinéennes, eutrophiles, médioeuropéennes
 Aire de répartition : introduit (Amér. du nord)
 Données d'après : Julve, Ph., 1998 ff. - Baseflor. Index botanique, écologique et chorologique de la flore de France. Version : 23 avril 2004.
-Confusions possibles
-L'espèce est très semblable à Erigeron strigosus avec laquelle elle est souvent confondue. Deux détails permettent de les différencier à l'œil nu après un examen minutieux : chez E. strigosus, les feuilles de la tige sont entières ou presque et les poils de la tige sont généralement ascendants, alors que chez E. annuus, les feuilles de la tige sont dentées et les poils de la tige sont disposés perpendiculairement à la tige[1].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Erigeron_annuus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erigeron_annuus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Confusions possibles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est très semblable à Erigeron strigosus avec laquelle elle est souvent confondue. Deux détails permettent de les différencier à l'œil nu après un examen minutieux : chez E. strigosus, les feuilles de la tige sont entières ou presque et les poils de la tige sont généralement ascendants, alors que chez E. annuus, les feuilles de la tige sont dentées et les poils de la tige sont disposés perpendiculairement à la tige.
 	Erigeron annuus
 			Capitules.
 			Tige et poils (perpendiculaires à la tige).
